--- a/forecast_summary_B0CNR8Y29S.xlsx
+++ b/forecast_summary_B0CNR8Y29S.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>17.00646877690803</v>
       </c>
       <c r="D2" t="n">
-        <v>69.78372714975018</v>
+        <v>74.57958105949382</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>21.46927983214864</v>
       </c>
       <c r="D3" t="n">
-        <v>78.02871147195587</v>
+        <v>77.23067715303804</v>
       </c>
       <c r="E3" t="n">
         <v>77</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
         <v>41.88507347497514</v>
       </c>
       <c r="D4" t="n">
-        <v>94.6201243582916</v>
+        <v>99.17875716467137</v>
       </c>
       <c r="E4" t="n">
         <v>76</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
         <v>48.70363966387993</v>
       </c>
       <c r="D5" t="n">
-        <v>103.7926401281442</v>
+        <v>102.9835332795635</v>
       </c>
       <c r="E5" t="n">
         <v>70</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
         <v>36.96920151240941</v>
       </c>
       <c r="D6" t="n">
-        <v>89.93207357433987</v>
+        <v>92.49045955926466</v>
       </c>
       <c r="E6" t="n">
         <v>70</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>28.6207360543056</v>
       </c>
       <c r="D7" t="n">
-        <v>82.94686669611708</v>
+        <v>82.32435188202183</v>
       </c>
       <c r="E7" t="n">
         <v>73</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>41.96336134647584</v>
       </c>
       <c r="D8" t="n">
-        <v>94.76293619133527</v>
+        <v>94.17408719511326</v>
       </c>
       <c r="E8" t="n">
         <v>75</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" t="n">
         <v>68.23507150050364</v>
       </c>
       <c r="D9" t="n">
-        <v>121.6781909473433</v>
+        <v>120.996003906553</v>
       </c>
       <c r="E9" t="n">
         <v>77</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="n">
         <v>83.04002148312965</v>
       </c>
       <c r="D10" t="n">
-        <v>136.2885541619842</v>
+        <v>138.1190241074606</v>
       </c>
       <c r="E10" t="n">
         <v>75</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
         <v>76.35778118746683</v>
       </c>
       <c r="D11" t="n">
-        <v>133.9640672410157</v>
+        <v>134.2261138134457</v>
       </c>
       <c r="E11" t="n">
         <v>75</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
         <v>64.21689605259317</v>
       </c>
       <c r="D12" t="n">
-        <v>116.7537582675735</v>
+        <v>120.2911258680546</v>
       </c>
       <c r="E12" t="n">
         <v>78</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" t="n">
         <v>69.86605902907596</v>
       </c>
       <c r="D13" t="n">
-        <v>125.4444749111636</v>
+        <v>123.7763962804358</v>
       </c>
       <c r="E13" t="n">
         <v>78</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="n">
         <v>98.34393845327787</v>
       </c>
       <c r="D14" t="n">
-        <v>153.1589321026403</v>
+        <v>154.4011376841638</v>
       </c>
       <c r="E14" t="n">
         <v>78</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" t="n">
         <v>132.6426500381307</v>
       </c>
       <c r="D15" t="n">
-        <v>188.2146142180309</v>
+        <v>185.6985153044111</v>
       </c>
       <c r="E15" t="n">
         <v>77</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>152.0809279996867</v>
       </c>
       <c r="D16" t="n">
-        <v>207.0612286342146</v>
+        <v>205.8957629523393</v>
       </c>
       <c r="E16" t="n">
         <v>76</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C17" t="n">
         <v>150.5920683360459</v>
       </c>
       <c r="D17" t="n">
-        <v>202.0777484926072</v>
+        <v>206.575787898961</v>
       </c>
       <c r="E17" t="n">
         <v>76</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
         <v>138.4196265622956</v>
       </c>
       <c r="D18" t="n">
-        <v>197.0766167236349</v>
+        <v>191.7943828303038</v>
       </c>
       <c r="E18" t="n">
         <v>73</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>131.1587367608529</v>
       </c>
       <c r="D19" t="n">
-        <v>185.5967553087432</v>
+        <v>184.6539779867896</v>
       </c>
       <c r="E19" t="n">
         <v>75</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
         <v>138.6890563572364</v>
       </c>
       <c r="D20" t="n">
-        <v>194.3306165015538</v>
+        <v>189.8662415481088</v>
       </c>
       <c r="E20" t="n">
         <v>79</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
         <v>159.6774825201544</v>
       </c>
       <c r="D21" t="n">
-        <v>213.6965454070217</v>
+        <v>217.0055055259051</v>
       </c>
       <c r="E21" t="n">
         <v>74</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X670 GAMING X AX V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1485</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>480</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>219</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
     </row>
